--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H2">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N2">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O2">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P2">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q2">
-        <v>9318.240253637234</v>
+        <v>7017.299596827163</v>
       </c>
       <c r="R2">
-        <v>83864.16228273509</v>
+        <v>63155.69637144446</v>
       </c>
       <c r="S2">
-        <v>0.1752551390588907</v>
+        <v>0.09745411565985218</v>
       </c>
       <c r="T2">
-        <v>0.1752551390588907</v>
+        <v>0.09745411565985218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H3">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N3">
         <v>27.836209</v>
       </c>
       <c r="O3">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P3">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q3">
-        <v>1496.472591632952</v>
+        <v>951.0054889903001</v>
       </c>
       <c r="R3">
-        <v>13468.25332469657</v>
+        <v>8559.049400912701</v>
       </c>
       <c r="S3">
-        <v>0.02814528333738558</v>
+        <v>0.01320727405726264</v>
       </c>
       <c r="T3">
-        <v>0.02814528333738558</v>
+        <v>0.01320727405726265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H4">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N4">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q4">
-        <v>5263.709599339489</v>
+        <v>6901.491564518505</v>
       </c>
       <c r="R4">
-        <v>47373.3863940554</v>
+        <v>62113.42408066655</v>
       </c>
       <c r="S4">
-        <v>0.09899853756590782</v>
+        <v>0.09584580904286653</v>
       </c>
       <c r="T4">
-        <v>0.09899853756590779</v>
+        <v>0.09584580904286655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J5">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N5">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O5">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P5">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q5">
-        <v>16684.22574904407</v>
+        <v>19770.96721302062</v>
       </c>
       <c r="R5">
-        <v>150158.0317413966</v>
+        <v>177938.7049171855</v>
       </c>
       <c r="S5">
-        <v>0.3137927574465905</v>
+        <v>0.2745731600737173</v>
       </c>
       <c r="T5">
-        <v>0.3137927574465904</v>
+        <v>0.2745731600737173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J6">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N6">
         <v>27.836209</v>
       </c>
       <c r="O6">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P6">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q6">
-        <v>2679.420777578206</v>
+        <v>2679.420777578205</v>
       </c>
       <c r="R6">
         <v>24114.78699820385</v>
       </c>
       <c r="S6">
-        <v>0.05039387783422469</v>
+        <v>0.03721097820557381</v>
       </c>
       <c r="T6">
-        <v>0.05039387783422467</v>
+        <v>0.03721097820557383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J7">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N7">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O7">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P7">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q7">
-        <v>9424.624912253232</v>
+        <v>19444.68261049144</v>
       </c>
       <c r="R7">
-        <v>84821.62421027909</v>
+        <v>175002.143494423</v>
       </c>
       <c r="S7">
-        <v>0.1772559951896609</v>
+        <v>0.2700418190707929</v>
       </c>
       <c r="T7">
-        <v>0.1772559951896608</v>
+        <v>0.270041819070793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H8">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N8">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O8">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P8">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q8">
-        <v>4811.926529629349</v>
+        <v>7192.628960198532</v>
       </c>
       <c r="R8">
-        <v>43307.33876666413</v>
+        <v>64733.66064178679</v>
       </c>
       <c r="S8">
-        <v>0.09050151424912893</v>
+        <v>0.09988903636129798</v>
       </c>
       <c r="T8">
-        <v>0.09050151424912892</v>
+        <v>0.09988903636129799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H9">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N9">
         <v>27.836209</v>
       </c>
       <c r="O9">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P9">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q9">
-        <v>772.7764007513136</v>
+        <v>974.7666501957783</v>
       </c>
       <c r="R9">
-        <v>6954.987606761822</v>
+        <v>8772.899851762006</v>
       </c>
       <c r="S9">
-        <v>0.01453418584289413</v>
+        <v>0.01353726181400286</v>
       </c>
       <c r="T9">
-        <v>0.01453418584289413</v>
+        <v>0.01353726181400287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H10">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N10">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O10">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P10">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q10">
-        <v>2718.172441995121</v>
+        <v>7073.927429002189</v>
       </c>
       <c r="R10">
-        <v>24463.55197795609</v>
+        <v>63665.34686101972</v>
       </c>
       <c r="S10">
-        <v>0.05112270947531689</v>
+        <v>0.0982405457146338</v>
       </c>
       <c r="T10">
-        <v>0.05112270947531689</v>
+        <v>0.09824054571463381</v>
       </c>
     </row>
   </sheetData>
